--- a/logs/charts_results_files/data_ba_10.xlsx
+++ b/logs/charts_results_files/data_ba_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230EA903-C0EA-4E63-8865-CA3053EBF5E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97F0CC-F579-461F-8034-07B85C71EC87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
@@ -256,7 +256,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="588838"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
